--- a/boards/dtwonder-DT-R002/PickAndPlace.xlsx
+++ b/boards/dtwonder-DT-R002/PickAndPlace.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>Designator</t>
   </si>
@@ -109,13 +109,13 @@
     <t>HDR-TH_6P-P2.54-V-F</t>
   </si>
   <si>
-    <t>65.659mm</t>
-  </si>
-  <si>
-    <t>40.894mm</t>
-  </si>
-  <si>
-    <t>34.544mm</t>
+    <t>59.69mm</t>
+  </si>
+  <si>
+    <t>40.767mm</t>
+  </si>
+  <si>
+    <t>34.417mm</t>
   </si>
   <si>
     <t>DBG</t>
@@ -139,7 +139,7 @@
     <t>60.579mm</t>
   </si>
   <si>
-    <t>5V</t>
+    <t>12V</t>
   </si>
   <si>
     <t>PZ254V-11-01P</t>
@@ -148,97 +148,88 @@
     <t>HDR-TH_1P-P2.54-V-M</t>
   </si>
   <si>
-    <t>40.64mm</t>
-  </si>
-  <si>
-    <t>37.211mm</t>
-  </si>
-  <si>
-    <t>12V</t>
-  </si>
-  <si>
     <t>52.832mm</t>
   </si>
   <si>
     <t>22.098mm</t>
   </si>
   <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>MES104J2A-7-50R0</t>
+  </si>
+  <si>
+    <t>CAP-TH_L7.2-W4.0-P5.00-D0.5</t>
+  </si>
+  <si>
+    <t>43.561mm</t>
+  </si>
+  <si>
+    <t>27.305mm</t>
+  </si>
+  <si>
+    <t>41.062mm</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>53.467mm</t>
+  </si>
+  <si>
+    <t>55.966mm</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>7805_C305416</t>
+  </si>
+  <si>
+    <t>TO-220-3_L10.4-W15.5-P3.00</t>
+  </si>
+  <si>
+    <t>49.149mm</t>
+  </si>
+  <si>
+    <t>31.877mm</t>
+  </si>
+  <si>
+    <t>46.149mm</t>
+  </si>
+  <si>
+    <t>7805</t>
+  </si>
+  <si>
     <t>U3</t>
   </si>
   <si>
     <t>Level Shifter</t>
   </si>
   <si>
-    <t>level shifter footprint</t>
-  </si>
-  <si>
-    <t>32.52mm</t>
-  </si>
-  <si>
-    <t>35.812mm</t>
+    <t>Level Shifter Footprint</t>
+  </si>
+  <si>
+    <t>32.15mm</t>
+  </si>
+  <si>
+    <t>35.876mm</t>
+  </si>
+  <si>
+    <t>25.781mm</t>
+  </si>
+  <si>
+    <t>43.942mm</t>
   </si>
   <si>
     <t>27.051mm</t>
   </si>
   <si>
-    <t>43.815mm</t>
-  </si>
-  <si>
-    <t>28.321mm</t>
-  </si>
-  <si>
-    <t>42.099mm</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>MES104J2A-7-50R0</t>
-  </si>
-  <si>
-    <t>CAP-TH_L7.2-W4.0-P5.00-D0.5</t>
-  </si>
-  <si>
-    <t>43.561mm</t>
-  </si>
-  <si>
-    <t>27.305mm</t>
-  </si>
-  <si>
-    <t>41.062mm</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>53.467mm</t>
-  </si>
-  <si>
-    <t>55.966mm</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>7805_C305416</t>
-  </si>
-  <si>
-    <t>TO-220-3_L10.4-W15.5-P3.00</t>
-  </si>
-  <si>
-    <t>49.149mm</t>
-  </si>
-  <si>
-    <t>31.877mm</t>
-  </si>
-  <si>
-    <t>52.149mm</t>
-  </si>
-  <si>
-    <t>7805</t>
+    <t>42.226mm</t>
   </si>
 </sst>
 </file>
@@ -615,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -893,31 +884,31 @@
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="s">
         <v>28</v>
@@ -929,183 +920,139 @@
         <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
         <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
       </c>
       <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
         <v>56</v>
       </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J8">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K8" t="s">
         <v>28</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M8" t="s">
         <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
         <v>62</v>
       </c>
-      <c r="E9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" t="s">
-        <v>64</v>
-      </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" t="s">
         <v>28</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M9" t="s">
         <v>21</v>
       </c>
       <c r="N9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
         <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
       </c>
       <c r="D10" t="s">
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>28</v>
       </c>
       <c r="L10">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M10" t="s">
         <v>21</v>
       </c>
       <c r="N10" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11">
-        <v>270</v>
-      </c>
-      <c r="M11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/boards/dtwonder-DT-R002/PickAndPlace.xlsx
+++ b/boards/dtwonder-DT-R002/PickAndPlace.xlsx
@@ -55,7 +55,7 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Board</t>
+    <t>BOARD</t>
   </si>
   <si>
     <t>2.54-1*8P母环保</t>
@@ -79,7 +79,116 @@
     <t>No</t>
   </si>
   <si>
-    <t>Wiegand</t>
+    <t>PROG</t>
+  </si>
+  <si>
+    <t>2.54-1*6P母</t>
+  </si>
+  <si>
+    <t>HDR-TH_6P-P2.54-V-F</t>
+  </si>
+  <si>
+    <t>57.531mm</t>
+  </si>
+  <si>
+    <t>40.767mm</t>
+  </si>
+  <si>
+    <t>34.417mm</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON
+OFF</t>
+  </si>
+  <si>
+    <t>DP-02RP</t>
+  </si>
+  <si>
+    <t>SW-TH_DP-02XP</t>
+  </si>
+  <si>
+    <t>61.976mm</t>
+  </si>
+  <si>
+    <t>61.849mm</t>
+  </si>
+  <si>
+    <t>65.786mm</t>
+  </si>
+  <si>
+    <t>60.579mm</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>PZ254V-11-01P</t>
+  </si>
+  <si>
+    <t>HDR-TH_1P-P2.54-V-M</t>
+  </si>
+  <si>
+    <t>52.832mm</t>
+  </si>
+  <si>
+    <t>22.098mm</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>MES104J2A-7-50R0</t>
+  </si>
+  <si>
+    <t>CAP-TH_L7.2-W4.0-P5.00-D0.5</t>
+  </si>
+  <si>
+    <t>43.561mm</t>
+  </si>
+  <si>
+    <t>27.305mm</t>
+  </si>
+  <si>
+    <t>41.062mm</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>53.467mm</t>
+  </si>
+  <si>
+    <t>55.966mm</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>7805_C305416</t>
+  </si>
+  <si>
+    <t>TO-220-3_L10.4-W15.5-P3.00</t>
+  </si>
+  <si>
+    <t>49.149mm</t>
+  </si>
+  <si>
+    <t>31.877mm</t>
+  </si>
+  <si>
+    <t>46.149mm</t>
+  </si>
+  <si>
+    <t>7805</t>
+  </si>
+  <si>
+    <t>WIEGAND</t>
   </si>
   <si>
     <t>DB128V-5.08-6P-GN-S</t>
@@ -95,114 +204,6 @@
   </si>
   <si>
     <t>21.209mm</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>PROG</t>
-  </si>
-  <si>
-    <t>2.54-1*6P母</t>
-  </si>
-  <si>
-    <t>HDR-TH_6P-P2.54-V-F</t>
-  </si>
-  <si>
-    <t>59.69mm</t>
-  </si>
-  <si>
-    <t>40.767mm</t>
-  </si>
-  <si>
-    <t>34.417mm</t>
-  </si>
-  <si>
-    <t>DBG</t>
-  </si>
-  <si>
-    <t>DP-02RP</t>
-  </si>
-  <si>
-    <t>SW-TH_DP-02XP</t>
-  </si>
-  <si>
-    <t>61.976mm</t>
-  </si>
-  <si>
-    <t>61.849mm</t>
-  </si>
-  <si>
-    <t>65.786mm</t>
-  </si>
-  <si>
-    <t>60.579mm</t>
-  </si>
-  <si>
-    <t>12V</t>
-  </si>
-  <si>
-    <t>PZ254V-11-01P</t>
-  </si>
-  <si>
-    <t>HDR-TH_1P-P2.54-V-M</t>
-  </si>
-  <si>
-    <t>52.832mm</t>
-  </si>
-  <si>
-    <t>22.098mm</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>MES104J2A-7-50R0</t>
-  </si>
-  <si>
-    <t>CAP-TH_L7.2-W4.0-P5.00-D0.5</t>
-  </si>
-  <si>
-    <t>43.561mm</t>
-  </si>
-  <si>
-    <t>27.305mm</t>
-  </si>
-  <si>
-    <t>41.062mm</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>53.467mm</t>
-  </si>
-  <si>
-    <t>55.966mm</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>7805_C305416</t>
-  </si>
-  <si>
-    <t>TO-220-3_L10.4-W15.5-P3.00</t>
-  </si>
-  <si>
-    <t>49.149mm</t>
-  </si>
-  <si>
-    <t>31.877mm</t>
-  </si>
-  <si>
-    <t>46.149mm</t>
-  </si>
-  <si>
-    <t>7805</t>
   </si>
   <si>
     <t>U3</t>
@@ -726,10 +727,10 @@
         <v>26</v>
       </c>
       <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
         <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
       </c>
       <c r="J3">
         <v>6</v>
@@ -738,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -770,13 +771,13 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K4" t="s">
         <v>28</v>
@@ -793,78 +794,78 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
       <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
       <c r="J5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
         <v>28</v>
       </c>
       <c r="L5">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M5" t="s">
         <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>46</v>
-      </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
         <v>28</v>
@@ -876,36 +877,36 @@
         <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s">
-        <v>52</v>
-      </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -914,101 +915,101 @@
         <v>28</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M7" t="s">
         <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>55</v>
       </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
       <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
         <v>55</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" t="s">
         <v>28</v>
       </c>
       <c r="L8">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M8" t="s">
         <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
         <v>61</v>
       </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
         <v>62</v>
       </c>
-      <c r="I9" t="s">
-        <v>61</v>
-      </c>
       <c r="J9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K9" t="s">
         <v>28</v>
       </c>
       <c r="L9">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M9" t="s">
         <v>21</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
